--- a/2 Formulas and Functions/Formulas and Functions - 7. String Functions.xlsx
+++ b/2 Formulas and Functions/Formulas and Functions - 7. String Functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Analyst Builder\9.0 Excel for Data Analysis\4. Formulas and Functions\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4879da3f5c650214/Desktop/Excel-for-Data-Analysis - Copy/2 Formulas and Functions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C16F86A7-2341-40AD-979F-629749E8B4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{C16F86A7-2341-40AD-979F-629749E8B4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B45C776-3026-4649-8063-F050435E5E5A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -531,7 +531,7 @@
   <dimension ref="A4:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -553,7 +553,10 @@
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="str">
+        <f>_xlfn.CONCAT(A4, B4)</f>
+        <v>AppleInc.</v>
+      </c>
       <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
@@ -568,7 +571,10 @@
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2">
+        <f>LEN(B5)</f>
+        <v>13</v>
+      </c>
       <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
@@ -583,7 +589,10 @@
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="str">
+        <f>LEFT(B6)</f>
+        <v>T</v>
+      </c>
       <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
@@ -598,7 +607,10 @@
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="str">
+        <f>RIGHT(B7)</f>
+        <v>m</v>
+      </c>
       <c r="E7" s="3" t="s">
         <v>21</v>
       </c>
@@ -613,7 +625,10 @@
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="str">
+        <f>MID(B8, 1, 1)</f>
+        <v>T</v>
+      </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
       </c>
@@ -628,7 +643,10 @@
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="str">
+        <f>UPPER(B9)</f>
+        <v>STEVE JOBS</v>
+      </c>
       <c r="E9" s="3" t="s">
         <v>23</v>
       </c>
@@ -643,7 +661,10 @@
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="str">
+        <f>LOWER(B10)</f>
+        <v>steve jobs</v>
+      </c>
       <c r="E10" s="3" t="s">
         <v>24</v>
       </c>
@@ -658,7 +679,10 @@
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="str">
+        <f>PROPER(B11)</f>
+        <v>Steve Jobs</v>
+      </c>
       <c r="E11" s="3" t="s">
         <v>25</v>
       </c>
@@ -673,7 +697,10 @@
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="str">
+        <f>TRIM(B12)</f>
+        <v>I like Iphones!</v>
+      </c>
       <c r="E12" s="3" t="s">
         <v>26</v>
       </c>
@@ -688,7 +715,10 @@
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="str">
+        <f>SUBSTITUTE(B13,"Iphones","Androids")</f>
+        <v xml:space="preserve">I like Androids! I like them a lot!  </v>
+      </c>
       <c r="E13" s="3" t="s">
         <v>27</v>
       </c>
@@ -703,7 +733,10 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="str">
+        <f>REPLACE(B14, 1, 1, "You")</f>
+        <v xml:space="preserve">You like Iphones! I like them a lot!  </v>
+      </c>
       <c r="E14" s="3" t="s">
         <v>28</v>
       </c>
